--- a/biology/Botanique/Sarracenia_leucophylla/Sarracenia_leucophylla.xlsx
+++ b/biology/Botanique/Sarracenia_leucophylla/Sarracenia_leucophylla.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sarracenia leucophylla est une espèce de plantes à fleurs de la famille des Sarraceniaceae. C'est une plante carnivore qui pousse entre le sud-ouest de la Géorgie et le sud du Mississippi, étant la plus abondante dans la péninsule de Floride et à l’extrême sud de l’Alabama.
 La description de la plante date de 1817, par S. Rafinesque. L'épithète spécifique vient du grec leuco « blanc » et phylla « feuille », par allusion à la coloration blanche du haut des urnes. Elle était anciennement connue sous le nom de Sarracenia drummondii.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante vivace, terrestre, rhizomateuse, herbacée, dont il existe plusieurs formes. Sa taille varie entre 60 et 90 cm.
 Feuilles : Le haut de l'urne ainsi que le capuchon sont blancs veinés de rouge. Il y a de grandes variations de couleur. Certaines urnes sont presque blanc pur très discrètement veinées d'un vert pâle, ce qui ferait penser à un dessin de mosaïque.
@@ -550,7 +564,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il faudra prendre un pot assez grand 17 à 20 centimètres minimum si l'on veut voir des plantes atteindre une taille respectable. Le rempotage se fait à la fin de l'automne, en prenant toutes les précautions afin de ne pas abîmer les racines.
 Si le rempotage s'effectue au printemps ou plus tard dans la saison, il y a un risque de voir apparaître, au lieu d'urnes bien formées, des feuilles plates comme une cosse de petits pois vide.
@@ -587,7 +603,9 @@
           <t>Multiplication</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Par semis : Les graines sont semées dès la récolte à l'automne ou placées dans le bas du réfrigérateur en attendant le printemps (février). Pour les semis, j'utilise des sorte de mini-serres (boîtes à gâteaux dans les supermarchés) remplies de trois centimètres de substrat.
 Les graines sont ensuite placées une par une en surface. L'apparition des premiers germes peut parfois demander plusieurs mois. Comme toujours il ne faut jamais jeter un semis, même après une longue attente. Les plantules sont ensuite repiquées l'année suivante.
@@ -621,7 +639,9 @@
           <t>Observations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante de grand gabarit, qui demande beaucoup de place pour la voir s'épanouir avec ses plus belles couleurs.
 Plante relativement facile pour un débutant.
